--- a/planilha_atualizada.xlsx
+++ b/planilha_atualizada.xlsx
@@ -459,8 +459,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="54" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="88" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="95" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Apple Service</t>
+          <t>iPhone Mogi - Assistência técnica</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>(11) 94860-5909</t>
+          <t>(11) 4566-5795</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Av. Nove de Julho, 55 - Loja 02 - Centro, Poá - SP, 08550-100, Brazil</t>
+          <t>R. Princesa Isabel de Bragança, 235 - SL411 - Centro, Mogi das Cruzes - SP, 08710-460, Brazil</t>
         </is>
       </c>
     </row>

--- a/planilha_atualizada.xlsx
+++ b/planilha_atualizada.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,9 +458,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="54" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="95" customWidth="1" min="3" max="3"/>
+    <col width="65" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="133" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,68 +483,782 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>HIS Logistic</t>
+          <t>FRIALTO (Vale Grande Indústria e Comércio de Alimentos S/A)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>(11) 2779-0818</t>
+          <t>(66) 3511-8025</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>SP-102, 70 - Taiaçupeba, Mogi das Cruzes - SP, 08765-340, Brazil</t>
+          <t>RO-135, 2363 - Ji Parana, Ji-Paraná - RO, 76800-000, Brasil</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Google São Paulo - Edifício Pátio Victor Malzoni</t>
+          <t>D2 Foods</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>(11) 2395-8400</t>
+          <t>(11) 2942-1220</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Av. Brig. Faria Lima, 3477 - 18º Andar - Itaim Bibi, São Paulo - SP, 04538-133, Brazil</t>
+          <t>Rod. Fernão Dias, KM 82 - Chácaras Fernão Dias, São Paulo - SP, 02284-000, Brasil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>iPhone Mogi - Assistência técnica</t>
+          <t>Kimberly-Clark Kenko Indústria Comércio</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>(11) 4566-5795</t>
+          <t>(11) 4752-1095</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>R. Princesa Isabel de Bragança, 235 - SL411 - Centro, Mogi das Cruzes - SP, 08710-460, Brazil</t>
+          <t>R. Brasfanta, 96 - Jardim Santa Ines, Suzano - SP, 08695-065, Brasil</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>EG Indústria e Comércio de Peças Agrícolas no Brasil</t>
+          <t>Petrom</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>(11) 4990-7806</t>
+          <t>(11) 4798-7500</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Av. da Saudade, 127 - Vila Assunção, Santo André - SP, 09030-030, Brazil</t>
+          <t>Rod. Dom Paulo Rolim Loureiro, Km 9 - Vila Moraes, Mogi das Cruzes - SP, 08766-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>AGCO do Brasil Soluções Agrícolas</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>(11) 4795-2000</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>R. Cap. Francisco de Almeida, 695 - Vila Bras Cubas, Mogi das Cruzes - SP, 08740-300, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Höganäs Brasil Ltda</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>(11) 4793-7711</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Av. Ricieri José Marcatto, 110 - Vila Suissa, Mogi das Cruzes - SP, 08810-020, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Niterra do Brasil Ltda.</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>0800 019 7112</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>RODOVIA PROFESSOR ALFREDO ROLIM DE MOURA (SP-88 - Estr. Cocuera, KM 61, 8111 - Mogi das Cruzes, SP, 08880-900, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Sustentare Produtos Alimentícios Ltda. S A</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>(19) 3852-8200</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Estrada Municipal Fioravante Carlotti - Estr. p/ O Bairro Santa Teresa, 1901, Pedreira - SP, 13920-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Fábrica Auricchio Industria e Comércio de Metais Ltda</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>(11) 2500-1000</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Estr. Mauro Auricchio, 1501 - Taboão, Mogi das Cruzes - SP, 08776-850, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>NORAL NORDESTE ALUMÍNIO LTDA</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>(81) 3479-5000</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>R. Lago Verde - Prazeres, Jaboatão dos Guararapes - PE, 54345-115, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Empório do Mármore - Indústria</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>(28) 3333-9192</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>R. José Calegari - Aeroporto, Cachoeiro de Itapemirim - ES, 29314-087, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>MD GLOBAL LOGISTICS</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>(11) 99738-6202</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Helbor Concept Office - Av. Ver. Narciso Yague Guimarães, 1145 - Sala 813 - Jardim Armenia, Mogi das Cruzes - SP, 08780-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>MG2 Mármores e Granitos</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>(28) 3539-8080</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Coutinho, Cachoeiro de Itapemirim - ES, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Agroaraçá Indústria de Alimentos Ltda - Em recuperação Judicial</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>(54) 3275-0800</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>RS-324, 270 - 5 - Vila Zucchetti, Nova Araçá - RS, 95350-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Carrer Alimentos</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>(54) 3056-7600</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Estrada VRS 813, KM 12,9 - S/N - Nova Sardenha, Farroupilha - RS, 95183-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Associação dos Citricultores Ecológicos Vale do Caí Ecocit</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>(51) 3649-6087</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Condomínio Centro Empresarial Rui Barbosa - R. Cap. Porfírio, 1677 - Centro, Montenegro - RS, 95780-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>CS3 Revestimentos</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>(28) 3542-8200</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Córrego Sossego s/n Zona Rural - Castelo, ES, 29365-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Madeireira Rio Claro Ltda</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>(42) 3463-1144</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>R. Jacob Burko, 02, Rio Azul - PR, 84560-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Magban</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>(28) 3521-6244</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Rod. Gumercindo Moura Nunes, 78 - Village da Luz, Cachoeiro de Itapemirim - ES, 29309-362, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Mega Shipping Cargo</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>(11) 2500-3553</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Edifício Torre Office - Av. Ver. Narciso Yague Guimarães, 1145 - Sala 1410 - Socorro, Mogi das Cruzes - SP, 08780-520, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Mineração Coto Comércio, Importação e Exportação</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>(83) 99971-1169</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>BR 230 - Casa Nova Center - Rod. Gov. Antonio Mariz, 11034 - Sala 104 - Renascer, Cabedelo - PB, 58108-012, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Pemagran</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>(28) 2101-8000</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Estrada de gironda, s/n - Fazenda Monte Líbano, Cachoeiro de Itapemirim - ES, 29326-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>PG Química</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>(19) 3085-0090</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Estr. Mun. Jayme Alberto Bergstron - Distrito Industrial, Cordeirópolis - SP, 13492-602, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Riclan S.A.</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>(19) 3526-8100</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Av. Brasil, 4801 - Distrito Industrial, Rio Claro - SP, 13505-600, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Thor Granitos - Showroom SP</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>(11) 94506-2717</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Av. Lins de Vasconcelos, 2634 - Vila Mariana, São Paulo - SP, 04112-001, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Frigorifico São Francisco</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>(94) 99109-7562</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>SITIO CATARINENSE N°SN - ZONA RURAL - BR-158, KM 07 - Zona Rural, Redenção - PA, 68554-899, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agro Export Sementes Papini</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>(17) 3520-0707</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Rod. Euclides da Cunha, km 503 - 5 - Zona Rural, Cosmorama - SP, 15530-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Agrosul Foods</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>(51) 3635-6700</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Rua Waldomiro Freiberger, 1000 - Campestre, São Sebastião do Caí - RS, 95760-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Alpha Gestão</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>(11) 4191-1109</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Alameda Amazonas, 938 - 5 andar - BLOCO A - Alphaville, Barueri - SP, 06454-070, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Angramar</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>(28) 2102-1299</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Rod. Gumercindo Moura Nunes, SN - KM 9 - Vargem Grande do Soturno, Cachoeiro de Itapemirim - ES, 29321-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Boa Vista Alimentos (Frigorífico Boa Vista)</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>(62) 3516-1300</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>GO-070, KM 23 - S/N - Zona Rural, Goianira - GO, 75373-899, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Cacau Foods do Brasil</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>(14) 3417-5555</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Av. Eugênio Coneglian, 2460 - Distrito Industrial, Marília - SP, 17512-050, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>CASA GRANDE MINERAÇÃO</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>(84) 99625-9141</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>RN-086, KM 13 - ZONA RURAL, Parelhas - RN, 59360-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Cbrain International Agenciamento de Cargas Ltda.</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>(11) 4726-4532</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Rua: Princesa Isabel de Bragança, 235 - sala 601 - 6° andar - Centro, Mogi das Cruzes - SP, 08710-460, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Cerâmica Serra Azul - Arielle Revestimentos Cerâmicos</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>(19) 3556-9600</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>V CARMELO FIOR - Av. Carmelo Fior, S/N - Distrito Industrial, Nossa Sra. do Socorro - SE, 49160-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>IGC - Cia Iguaçu de Café Solúvel</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>(43) 3401-1211</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Rodovia Mello Peixoto, Km 88 - BR 369, S/N - Cornélio Procópio, PR, 86300-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Coamo Agroindustrial Cooperativa</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>(44) 3599-8000</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>R. Fioravante João Ferri, 99 - Jardim Alvorada, Campo Mourão - PR, 87308-445, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Comil Cotaxé Mineração Ltda</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>(27) 3756-7070</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>RODOVIA ES-080, km 02 Polo Industrial - Barra de São Francisco, ES, 29800-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>CROSSTRADING</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>(11) 98214-4519</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>R. Cel. José Eusébio, 95 – 13 - Higienópolis, São Paulo - SP, 01239-030, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Elgin S/A</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>0800 644 2362</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Av. Ver. Dante Jordão Stoppa, 47 - Cezar de Souza, Mogi das Cruzes - SP, 08820-390, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Energy Comercial Imp Exportadora</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>(19) 3800-3100</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Rod. Antônio Rossi - Elias Fausto, SP, 13350-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Gramazini Granitos e Mármores Thomazini</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>(28) 3539-8023</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>R. Mario Rezende, 27 - Gilberto Machado, Cachoeiro de Itapemirim - ES, 29303-200, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Hemoprot Mundo Novo-MS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>(67) 3474-2892</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Rodovia BR 163 km 12,5 - S/N, Mundo Novo - MS, 79980-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Abiquim</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>(11) 2148-4700</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Av. Chedid Jafet, 222 - Vila Olímpia, São Paulo - SP, 04551-065, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Sumo Industrial</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>(79) 3645-2200</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Rod Paulo Barreto de Meneses, 900 - Simpliciano Fernandes da Fonseca, Boquim - SE, 49360-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>LABAREDA AGROPECUÁRIA</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>(16) 3702-5355</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed Road, Cristais Paulista - SP, 14460-000, Brasil</t>
         </is>
       </c>
     </row>
